--- a/suger permissions.xlsx
+++ b/suger permissions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="21">
   <si>
     <t>الرقم</t>
   </si>
@@ -997,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G141" sqref="G141"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4430,11 +4430,11 @@
         <v>980</v>
       </c>
       <c r="E139" s="19">
-        <v>2040</v>
+        <v>2000</v>
       </c>
       <c r="F139" s="5">
         <f>E139*D139</f>
-        <v>1999200</v>
+        <v>1960000</v>
       </c>
       <c r="G139" s="17">
         <v>43369</v>
@@ -4462,6 +4462,30 @@
       </c>
       <c r="G140" s="17">
         <v>43373</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" s="1">
+        <v>351</v>
+      </c>
+      <c r="D141" s="1">
+        <v>800</v>
+      </c>
+      <c r="E141" s="19">
+        <v>90720</v>
+      </c>
+      <c r="F141" s="5">
+        <f>E141*D141</f>
+        <v>72576000</v>
+      </c>
+      <c r="G141" s="17">
+        <v>43383</v>
       </c>
     </row>
   </sheetData>
@@ -8375,12 +8399,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="F149:G149"/>
     <mergeCell ref="B143:E143"/>
     <mergeCell ref="F143:G143"/>
     <mergeCell ref="B105:G106"/>
@@ -8388,6 +8406,12 @@
     <mergeCell ref="F140:G140"/>
     <mergeCell ref="B139:G139"/>
     <mergeCell ref="B142:G142"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="F149:G149"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/suger permissions.xlsx
+++ b/suger permissions.xlsx
@@ -999,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4361,7 +4361,7 @@
         <v>100000</v>
       </c>
       <c r="F136" s="5">
-        <f>E136*D136</f>
+        <f t="shared" ref="F136:F141" si="4">E136*D136</f>
         <v>90000000</v>
       </c>
       <c r="G136" s="17">
@@ -4385,7 +4385,7 @@
         <v>26962</v>
       </c>
       <c r="F137" s="5">
-        <f>E137*D137</f>
+        <f t="shared" si="4"/>
         <v>24939850</v>
       </c>
       <c r="G137" s="17">
@@ -4409,7 +4409,7 @@
         <v>1238</v>
       </c>
       <c r="F138" s="5">
-        <f>E138*D138</f>
+        <f t="shared" si="4"/>
         <v>1225620</v>
       </c>
       <c r="G138" s="17">
@@ -4433,7 +4433,7 @@
         <v>2000</v>
       </c>
       <c r="F139" s="5">
-        <f>E139*D139</f>
+        <f t="shared" si="4"/>
         <v>1960000</v>
       </c>
       <c r="G139" s="17">
@@ -4457,7 +4457,7 @@
         <v>1500</v>
       </c>
       <c r="F140" s="5">
-        <f>E140*D140</f>
+        <f t="shared" si="4"/>
         <v>1477500</v>
       </c>
       <c r="G140" s="17">
@@ -4481,7 +4481,7 @@
         <v>90720</v>
       </c>
       <c r="F141" s="5">
-        <f>E141*D141</f>
+        <f t="shared" si="4"/>
         <v>72576000</v>
       </c>
       <c r="G141" s="17">
@@ -8399,6 +8399,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="F149:G149"/>
     <mergeCell ref="B143:E143"/>
     <mergeCell ref="F143:G143"/>
     <mergeCell ref="B105:G106"/>
@@ -8406,12 +8412,6 @@
     <mergeCell ref="F140:G140"/>
     <mergeCell ref="B139:G139"/>
     <mergeCell ref="B142:G142"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="F149:G149"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
